--- a/Project1_rubric.xlsx
+++ b/Project1_rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manid\Desktop\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2382772F-9B8E-4068-86FE-D3D0C71C4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29B6D66-A423-41D6-9206-1D22DBBEC685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72CE25B6-6E9E-4274-A849-56C5DCFE005B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="175">
   <si>
     <t>Column 2</t>
   </si>
@@ -339,12 +339,6 @@
     <t>https://github.com/mtkumar123/MyDollarBot#readme</t>
   </si>
   <si>
-    <t>https://github.com/mtkumar123/MyDollarBot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroku is used which stopped providing it's services for free </t>
-  </si>
-  <si>
     <t>https://github.com/mtkumar123/MyDollarBot/blob/main/CONTRIBUTING.md</t>
   </si>
   <si>
@@ -355,13 +349,214 @@
   </si>
   <si>
     <t>https://github.com/mtkumar123/MyDollarBot/tree/main/test</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>Is your software’s architecture and design modular?</t>
+  </si>
+  <si>
+    <t>Does your software use an accepted coding standard or convention?</t>
+  </si>
+  <si>
+    <t>Does your software allow communications using open communications protocols?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is your software cross-platform compatible?</t>
+  </si>
+  <si>
+    <t>Does your software allow data to be imported and exported using open data formats?</t>
+  </si>
+  <si>
+    <t>Does your software adhere to appropriate accessibility conventions or standards?</t>
+  </si>
+  <si>
+    <t>Does your documentation adhere to appropriate accessibility conventions or standards?</t>
+  </si>
+  <si>
+    <t>Is your source code stored in a repository under revision control?</t>
+  </si>
+  <si>
+    <t>Is each source code release a snapshot of the repository?</t>
+  </si>
+  <si>
+    <t>Are releases tagged in the repository?</t>
+  </si>
+  <si>
+    <t>Is there a branch of the repository that is always stable? (i.e. tests always pass, code always builds successfully)</t>
+  </si>
+  <si>
+    <t>Do you back-up your repository?</t>
+  </si>
+  <si>
+    <t>Do you provide publicly-available instructions for building your software from the source code?</t>
+  </si>
+  <si>
+    <t>Can you build, or package, your software using an automated tool?</t>
+  </si>
+  <si>
+    <t>Do you provide publicly-available instructions for deploying your software?</t>
+  </si>
+  <si>
+    <t>Does your documentation list all third-party dependencies?</t>
+  </si>
+  <si>
+    <t>Does your documentation list the version number for all third-party dependencies?</t>
+  </si>
+  <si>
+    <t>Does your software list the web address, and licences for all third-party dependencies and say whether the dependencies are mandatory or optional?</t>
+  </si>
+  <si>
+    <t>Can you download dependencies using a dependency management tool or package manager?</t>
+  </si>
+  <si>
+    <t>Do you have tests that can be run after your software has been built or deployed to show whether the build or deployment has been successful?</t>
+  </si>
+  <si>
+    <t>Do you have an automated test suite for your software?</t>
+  </si>
+  <si>
+    <t>Do you have a framework to periodically (e.g. nightly) run your tests on the latest version of the source code?</t>
+  </si>
+  <si>
+    <t>Do you use continuous integration, automatically running tests whenever changes are made to your source code?</t>
+  </si>
+  <si>
+    <t>Are your test results publicly visible?</t>
+  </si>
+  <si>
+    <t>Are all manually-run tests documented?</t>
+  </si>
+  <si>
+    <t>Does your project have resources (e.g. blog, Twitter, RSS feed, Facebook page, wiki, mailing list) that are regularly updated with information about your software?</t>
+  </si>
+  <si>
+    <t>Does your website state how many projects and users are associated with your project?</t>
+  </si>
+  <si>
+    <t>Do you provide success stories on your website?</t>
+  </si>
+  <si>
+    <t>Do you list your important partners and collaborators on your website?</t>
+  </si>
+  <si>
+    <t>Do you list your project's publications on your website or link to a resource where these are available?</t>
+  </si>
+  <si>
+    <t>Do you list third-party publications that refer to your software on your website or link to a resource where these are available?</t>
+  </si>
+  <si>
+    <t>Can users subscribe to notifications to changes to your source code repository?</t>
+  </si>
+  <si>
+    <t>If your software is developed as an open source project (and, not just a project developing open source software), do you have a governance model?</t>
+  </si>
+  <si>
+    <t>Do you accept contributions (e.g. bug fixes, enhancements, documentation updates, tutorials) from people who are not part of your project?</t>
+  </si>
+  <si>
+    <t>Do you have a contributions policy?</t>
+  </si>
+  <si>
+    <t>Is your contributions' policy publicly available?</t>
+  </si>
+  <si>
+    <t>Do contributors keep the copyright/IP of their contributions?</t>
+  </si>
+  <si>
+    <t>Does your website and documentation clearly state the copyright owners of your software and documentation?</t>
+  </si>
+  <si>
+    <t>Does each of your source code files include a copyright statement?</t>
+  </si>
+  <si>
+    <t>Does your website and documentation clearly state the licence of your software?</t>
+  </si>
+  <si>
+    <t>Is your software released under an open source licence?</t>
+  </si>
+  <si>
+    <t>Is your software released under an OSI-approved open-source licence?</t>
+  </si>
+  <si>
+    <t>Does each of your source code files include a licence header?</t>
+  </si>
+  <si>
+    <t>Do you have a recommended citation for your software?</t>
+  </si>
+  <si>
+    <t>Does your website or documentation include a project roadmap (a list of project and development milestones for the next 3, 6 and 12 months)</t>
+  </si>
+  <si>
+    <t>Does your website or documentation describe how your project is funded, and the period over which funding is guaranteed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you make timely announcements of the deprecation of components, APIs, etc.?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mtkumar123/MyDollarBot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mtkumar123/MyDollarBot#readme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mtkumar123/MyDollarBot/blob/main/README.md </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mtkumar123/MyDollarBot/blob/main/CONTRIBUTING.md </t>
+  </si>
+  <si>
+    <t>https://github.com/shantanu109/CSC510_Group25_Project2</t>
+  </si>
+  <si>
+    <t>https://github.com/mtkumar123/MyDollarBot/blob/main/requirements.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/Ashnayak/feature-hunt/blob/main/package.json</t>
+  </si>
+  <si>
+    <t>https://github.com/NCSU-Group7-SE2021/slash/blob/main/requirements.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/package.json</t>
+  </si>
+  <si>
+    <t>https://github.com/secheaper/slashbot/blob/main/requirements.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/secheaper/slashbot/blob/main/CONTRIBUTING.md</t>
+  </si>
+  <si>
+    <t>https://github.com/mtkumar123/MyDollarBot/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t>https://github.com/Ashnayak/feature-hunt/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t>https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/LICENSE.md</t>
+  </si>
+  <si>
+    <t>https://github.com/secheaper/slashbot/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t>https://github.com/NCSU-Group7-SE2021/slash/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t>https://github.com/NCSU-Group7-SE2021/slash/blob/main/CITATION.cff</t>
+  </si>
+  <si>
+    <t>https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/CITATION.md</t>
+  </si>
+  <si>
+    <t>https://github.com/Ashnayak/feature-hunt/blob/main/CITATION.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +596,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -508,21 +710,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,7 +720,33 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -849,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFA6202-0209-4268-A39A-2DD8BC9C9DB9}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,26 +1084,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -899,7 +1112,7 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -934,32 +1147,32 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>104</v>
+      <c r="K3" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -969,32 +1182,32 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
       </c>
-      <c r="K4" t="s">
-        <v>103</v>
+      <c r="K4" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,32 +1217,32 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
-      <c r="K5" t="s">
-        <v>103</v>
+      <c r="K5" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1039,19 +1252,19 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="6"/>
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="6"/>
       <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="6"/>
       <c r="J6" t="s">
         <v>57</v>
       </c>
@@ -1063,19 +1276,19 @@
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="6"/>
       <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="6"/>
       <c r="J7" t="s">
         <v>57</v>
       </c>
@@ -1087,30 +1300,32 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
-        <v>104</v>
+      <c r="K8" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1120,29 +1335,29 @@
       <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1152,32 +1367,32 @@
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
+      <c r="K10" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1187,32 +1402,32 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" t="s">
-        <v>104</v>
+      <c r="K11" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1222,31 +1437,31 @@
       <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1257,31 +1472,31 @@
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1292,31 +1507,31 @@
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1327,25 +1542,25 @@
       <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="6"/>
       <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="6"/>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1355,87 +1570,87 @@
       <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="6"/>
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="6"/>
       <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="6"/>
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="6"/>
       <c r="J16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
       </c>
-      <c r="K17" t="s">
-        <v>107</v>
+      <c r="K17" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="6"/>
       <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="K18" t="s">
-        <v>107</v>
+      <c r="K18" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1445,32 +1660,32 @@
       <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="6" t="s">
         <v>83</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>57</v>
       </c>
-      <c r="K19" t="s">
-        <v>107</v>
+      <c r="K19" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1480,54 +1695,54 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="6"/>
       <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J20" t="s">
         <v>57</v>
       </c>
-      <c r="K20" t="s">
-        <v>107</v>
+      <c r="K20" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="6"/>
       <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="6"/>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1537,19 +1752,19 @@
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="6"/>
       <c r="F22" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="6"/>
       <c r="H22" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="6"/>
       <c r="J22" t="s">
         <v>57</v>
       </c>
@@ -1561,19 +1776,19 @@
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="6"/>
       <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="6"/>
       <c r="H23" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="6"/>
       <c r="J23" t="s">
         <v>57</v>
       </c>
@@ -1585,32 +1800,32 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="6" t="s">
         <v>94</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" t="s">
-        <v>106</v>
+      <c r="K24" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1620,929 +1835,2270 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="6" t="s">
         <v>94</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J65" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="11" t="s">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" s="6"/>
+      <c r="J95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" s="6"/>
+      <c r="J96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98" s="6"/>
+      <c r="J98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99" s="6"/>
+      <c r="J99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100" s="6"/>
+      <c r="J100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101" s="6"/>
+      <c r="J101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102" s="6"/>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="11">
+        <v>82</v>
+      </c>
+      <c r="D104" s="12">
         <v>85</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="F104" s="13">
+        <v>82</v>
+      </c>
+      <c r="H104" s="14">
         <v>85</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="J104" s="15">
         <v>81</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
-      <c r="K39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55" s="11"/>
-      <c r="J55">
-        <v>3</v>
-      </c>
-      <c r="K55" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2553,25 +4109,75 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C29" r:id="rId1" xr:uid="{1EF86438-C88C-4899-A3B4-949B416B2601}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{771AD14F-62DA-4541-B4CB-539616A51CA4}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{E8507347-011C-470A-8391-5C18BC35087B}"/>
-    <hyperlink ref="C47" r:id="rId4" xr:uid="{D77F71A8-028E-4F4F-8BED-23CF76D4B826}"/>
-    <hyperlink ref="C45" r:id="rId5" xr:uid="{0BE9D3F6-9FF6-47D0-BDC0-45A840FEDFBD}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{E08994E8-41B2-44E1-979C-AEC7B6E1509D}"/>
-    <hyperlink ref="C32" r:id="rId7" xr:uid="{875BB5CF-34F0-4CAF-B1CC-983BE56B919C}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{406E9378-4A81-44EB-B137-A76AF3EE722C}"/>
-    <hyperlink ref="E3:E55" r:id="rId9" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{D0D2B0F3-A0F8-4A89-BB55-4B92925B1FF5}"/>
-    <hyperlink ref="G3" r:id="rId10" xr:uid="{7BD1E216-F90D-4EE2-BA15-D5CB541EC39C}"/>
-    <hyperlink ref="G12" r:id="rId11" location="readme" xr:uid="{682851B4-AAE5-4F36-9E8A-1398026A571B}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{9C717AB2-2897-4EEC-9F33-ABC3A27255D0}"/>
-    <hyperlink ref="I5" r:id="rId13" location="readme" xr:uid="{DD6C5A6F-A86D-4BED-9266-F1B72609EC77}"/>
-    <hyperlink ref="G14" r:id="rId14" location="readme" xr:uid="{4584B4B3-A502-4B07-AB61-DB0393FCB43D}"/>
-    <hyperlink ref="I3" r:id="rId15" xr:uid="{B7D66940-1383-49CE-843A-80E0B0B9D3BF}"/>
-    <hyperlink ref="I3:I55" r:id="rId16" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{139C5752-04F0-4921-ACCC-66AB8C1C3BBC}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{771AD14F-62DA-4541-B4CB-539616A51CA4}"/>
+    <hyperlink ref="C94" r:id="rId2" xr:uid="{D77F71A8-028E-4F4F-8BED-23CF76D4B826}"/>
+    <hyperlink ref="C92" r:id="rId3" xr:uid="{0BE9D3F6-9FF6-47D0-BDC0-45A840FEDFBD}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{406E9378-4A81-44EB-B137-A76AF3EE722C}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{7BD1E216-F90D-4EE2-BA15-D5CB541EC39C}"/>
+    <hyperlink ref="G12" r:id="rId6" location="readme" xr:uid="{682851B4-AAE5-4F36-9E8A-1398026A571B}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{9C717AB2-2897-4EEC-9F33-ABC3A27255D0}"/>
+    <hyperlink ref="I5" r:id="rId8" location="readme" xr:uid="{DD6C5A6F-A86D-4BED-9266-F1B72609EC77}"/>
+    <hyperlink ref="G14" r:id="rId9" location="readme" xr:uid="{4584B4B3-A502-4B07-AB61-DB0393FCB43D}"/>
+    <hyperlink ref="I3" r:id="rId10" xr:uid="{B7D66940-1383-49CE-843A-80E0B0B9D3BF}"/>
+    <hyperlink ref="C79" r:id="rId11" xr:uid="{875BB5CF-34F0-4CAF-B1CC-983BE56B919C}"/>
+    <hyperlink ref="C80" r:id="rId12" xr:uid="{E8507347-011C-470A-8391-5C18BC35087B}"/>
+    <hyperlink ref="C77" r:id="rId13" xr:uid="{E08994E8-41B2-44E1-979C-AEC7B6E1509D}"/>
+    <hyperlink ref="C76" r:id="rId14" xr:uid="{1EF86438-C88C-4899-A3B4-949B416B2601}"/>
+    <hyperlink ref="E26:E31" r:id="rId15" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{C8DF789D-04EB-4335-BC4F-976946E1DA07}"/>
+    <hyperlink ref="I26:I31" r:id="rId16" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{453AA805-B021-4562-8D2B-DA5B7A8A9F1A}"/>
+    <hyperlink ref="E26:E28" r:id="rId17" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{6B4A3FBF-B73C-49F2-A6F3-C23105A2B79E}"/>
+    <hyperlink ref="I26:I28" r:id="rId18" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{1B6028FD-BF7A-4221-A771-D3BC939F8D65}"/>
+    <hyperlink ref="E55:E57" r:id="rId19" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{E5E40BFD-F0DF-46CE-8938-FC3A52D4FA16}"/>
+    <hyperlink ref="I55:I57" r:id="rId20" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{44FB0142-77E6-4382-AA76-32D947A1CDE7}"/>
+    <hyperlink ref="E51" r:id="rId21" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{673D2E5A-34F6-4489-B62A-2EB697F84A00}"/>
+    <hyperlink ref="I51" r:id="rId22" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{462507A4-646C-4D65-BA1B-27653793BBA6}"/>
+    <hyperlink ref="E67" r:id="rId23" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{636D88A2-5076-41DD-8C9B-4883AAB03796}"/>
+    <hyperlink ref="I67" r:id="rId24" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{EEFE3F92-91B0-49DE-88E8-2304D0771E83}"/>
+    <hyperlink ref="E71:E72" r:id="rId25" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{5A74B932-F8C3-4B2C-BEAC-D789A0E83DEC}"/>
+    <hyperlink ref="I71:I72" r:id="rId26" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{7DB52F05-FF6D-47F3-9E58-B29E4FBCF365}"/>
+    <hyperlink ref="E71" r:id="rId27" display="https://github.com/shantanu109/CSC510_Group25_Project1/blob/main/README.md" xr:uid="{82A92B7F-406E-490F-8DED-2FAEECF9BCF5}"/>
+    <hyperlink ref="I71" r:id="rId28" display="https://github.com/NCSU-Group7-SE2021/slash/" xr:uid="{EA230829-0005-4DB4-836B-6812A1E0839D}"/>
+    <hyperlink ref="K3" r:id="rId29" xr:uid="{0C64522A-7C03-45ED-9761-B7037B10C9F6}"/>
+    <hyperlink ref="K4" r:id="rId30" location="readme " xr:uid="{449CF732-8CB9-4A6F-BEBF-452ABE9A1EE6}"/>
+    <hyperlink ref="K5" r:id="rId31" location="readme " xr:uid="{EA7A2359-AC77-487E-828A-1A5D3EBEAF4C}"/>
+    <hyperlink ref="K8" r:id="rId32" xr:uid="{775EE25D-D364-4161-8D6E-487767906395}"/>
+    <hyperlink ref="K10" r:id="rId33" xr:uid="{D8C2BD8E-0B57-4CF5-8AED-2A5200C72EE7}"/>
+    <hyperlink ref="K11" r:id="rId34" xr:uid="{193606ED-F3C1-4E20-842B-C5464E88B044}"/>
+    <hyperlink ref="K12" r:id="rId35" location="readme" xr:uid="{2B40114C-BEB6-4307-847A-FB3177E6F4A0}"/>
+    <hyperlink ref="K13" r:id="rId36" location="readme" xr:uid="{1C9170AC-C779-4DCC-A025-91DBC042F797}"/>
+    <hyperlink ref="K14" r:id="rId37" location="readme" xr:uid="{585E05C9-6086-4213-9766-8A84F83BA073}"/>
+    <hyperlink ref="K17" r:id="rId38" xr:uid="{CF5E2925-5379-4F6A-9F53-B6C8657BB31B}"/>
+    <hyperlink ref="K18" r:id="rId39" xr:uid="{98919924-EF4A-4E1C-B39A-DE21E230922B}"/>
+    <hyperlink ref="K19" r:id="rId40" xr:uid="{BC592C2B-2611-49DF-B7B9-B8B5ACF19A47}"/>
+    <hyperlink ref="K20" r:id="rId41" xr:uid="{03AB43A1-2F46-4B2A-81B6-FB49298172F5}"/>
+    <hyperlink ref="K24" r:id="rId42" xr:uid="{983B3619-B07D-487A-9739-DF438218E4F4}"/>
+    <hyperlink ref="K25" r:id="rId43" xr:uid="{36ACE7D1-1722-429A-B74E-6DEEA90FEFA0}"/>
+    <hyperlink ref="C8" r:id="rId44" xr:uid="{330E47AF-600B-4B20-A857-8CD076C80520}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{4A7EED04-B7DE-4F38-A637-AFBDDDD32D28}"/>
+    <hyperlink ref="K32" r:id="rId46" xr:uid="{536FFCC1-4E89-46F1-8DF7-E1A67F0ED082}"/>
+    <hyperlink ref="C33" r:id="rId47" xr:uid="{AF8ADC39-3BDB-4D03-8519-58A83F002C78}"/>
+    <hyperlink ref="K33" r:id="rId48" xr:uid="{DC98316F-7ACE-411C-80E6-A5A42A8DE388}"/>
+    <hyperlink ref="C34" r:id="rId49" xr:uid="{49237139-B003-41AB-A319-63B6494919B0}"/>
+    <hyperlink ref="G34" r:id="rId50" xr:uid="{677770D8-E1CD-4670-8A3D-76944B370B09}"/>
+    <hyperlink ref="I34" r:id="rId51" xr:uid="{D4D0DC69-2986-43D1-8059-8D5708BAE169}"/>
+    <hyperlink ref="K34" r:id="rId52" xr:uid="{4525ABB1-6AAA-4579-9F22-49F78A65F20F}"/>
+    <hyperlink ref="C38" r:id="rId53" xr:uid="{01F5A0D2-A336-4B72-BF94-64DC10703198}"/>
+    <hyperlink ref="G38" r:id="rId54" xr:uid="{293020B3-6E30-46FC-BFFE-387B3C1EFC5D}"/>
+    <hyperlink ref="I38" r:id="rId55" xr:uid="{05E42186-BABC-4255-8FB7-26F2EE15CA87}"/>
+    <hyperlink ref="K38" r:id="rId56" xr:uid="{0C05BD7D-C49B-456B-B51C-42F5925FD0C0}"/>
+    <hyperlink ref="C40" r:id="rId57" xr:uid="{C15507BE-BC18-4220-9C6C-F3EDA98E961B}"/>
+    <hyperlink ref="G40" r:id="rId58" xr:uid="{5C8B4E59-FB5A-41BE-9AC5-D814175B4206}"/>
+    <hyperlink ref="I40" r:id="rId59" xr:uid="{858491D6-41E2-452F-82E0-1381E64C1186}"/>
+    <hyperlink ref="K40" r:id="rId60" xr:uid="{9D10129A-285F-4257-A942-DAF0A8F5D20E}"/>
+    <hyperlink ref="C49" r:id="rId61" xr:uid="{13A86D9F-0FA8-45D1-A527-DB9A4FDCDBE9}"/>
+    <hyperlink ref="C54" r:id="rId62" xr:uid="{5206CE47-5442-4ADC-B903-CB6476B08529}"/>
+    <hyperlink ref="G54" r:id="rId63" xr:uid="{1673EB3E-D0F6-4E48-AC58-4B1CDF44829B}"/>
+    <hyperlink ref="I54" r:id="rId64" xr:uid="{1F80203E-86C4-4839-8C0C-4EAF27A8BE59}"/>
+    <hyperlink ref="K54" r:id="rId65" xr:uid="{FDC55750-2DE7-40BF-B12A-9E24B4ECB1DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>